--- a/epilog/epilog_CBST.xlsx
+++ b/epilog/epilog_CBST.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/uedataiga/Desktop/grad-research/data_analysis/epilog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B28DB7DF-AC42-DE49-ACE8-EDCCFA23A3FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75540701-19D4-D641-9D9C-01032F67655B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{B4EB5C19-4ED2-1B45-8BA3-D03252A81D4F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{B4EB5C19-4ED2-1B45-8BA3-D03252A81D4F}"/>
   </bookViews>
   <sheets>
     <sheet name="log" sheetId="1" r:id="rId1"/>
@@ -2687,7 +2687,7 @@
       <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L18" sqref="L18"/>
+      <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
